--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825CC8A-50DE-43EF-8D87-65B408C2A3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B839CC97-26C3-4895-B447-8D6C38E2D22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
   <si>
     <t>Người bán hàng</t>
   </si>
@@ -185,9 +185,6 @@
     <t xml:space="preserve">Nguồn 650W Sepgotep </t>
   </si>
   <si>
-    <t>Địa chỉ: 457 Trần Xuân Soạn, Phường Tân Hưng, TP.HCM</t>
-  </si>
-  <si>
     <t>HÃNG</t>
   </si>
   <si>
@@ -197,10 +194,69 @@
     <t>THÀNH TIỀN:</t>
   </si>
   <si>
-    <t xml:space="preserve">THUẾ GTGT:  </t>
-  </si>
-  <si>
-    <t>Năm 2025</t>
+    <t>1. Báo giá đã bao gồm VAT 8%</t>
+  </si>
+  <si>
+    <t>THUẾ GTGT (8%):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BÁO GIÁ CẤU HÌNH MÁY TÍNH </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Địa chỉ: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>457 Trần Xuân Soạn, Phường Tân Hưng, TP.HCM, Việt Nam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SĐT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0911 713 000 - 0969 108 619</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MST: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0318623648</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sintechvietnam@gmail.com</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -212,7 +268,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;₫&quot;"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,19 +385,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -370,6 +413,59 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -596,7 +692,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -696,35 +792,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,10 +807,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -855,44 +921,14 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -906,35 +942,107 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -948,6 +1056,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD70018"/>
+      <color rgb="FFB31D0D"/>
+      <color rgb="FFD60000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1059,20 +1174,75 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125226</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>179319</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2133600" cy="1436913"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1679908</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>268062</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6E8437-36D9-4F4E-84F8-CC3351491055}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F1B54A-3B6F-E3F0-3182-4D05236DF27B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296935" y="179319"/>
+          <a:ext cx="3674428" cy="1460343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>197430</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>271669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1404257</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA32FBC-4229-8958-1891-EAF9DC717EA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1081,20 +1251,22 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="13571" t="14286" r="12857" b="14286"/>
-        <a:stretch/>
+        <a:srcRect l="19263" t="21683" r="19376" b="14534"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2133600" cy="1436913"/>
+          <a:off x="13227630" y="271669"/>
+          <a:ext cx="1206827" cy="1241445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,7 +1274,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1424,112 +1596,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1574,7 +1746,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="G12" s="67" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1598,7 +1770,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="78"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1620,7 +1792,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="78"/>
+      <c r="G14" s="68"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1642,7 +1814,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1664,7 +1836,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="68"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1686,7 +1858,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="79"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1737,18 +1909,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="84"/>
+      <c r="G20" s="74"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1784,22 +1956,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1817,11 +1989,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -1833,65 +2005,65 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
       <c r="D28"/>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
@@ -1947,112 +2119,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2233,18 +2405,18 @@
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87" t="e">
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77" t="e">
         <f>SUM('CH2'!A19:E19F12:F17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G19" s="87"/>
+      <c r="G19" s="77"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="13"/>
@@ -2277,22 +2449,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2310,11 +2482,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2326,65 +2498,65 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
       <c r="D27"/>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
@@ -2429,454 +2601,463 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="48" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="48" customWidth="1"/>
-    <col min="3" max="3" width="62" style="48" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="11" style="51" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="52" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" style="48" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="48"/>
+    <col min="1" max="1" width="6.33203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="81.6640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="21" style="39" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" style="42" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="39" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1">
-      <c r="C1" s="93" t="s">
+    <row r="1" spans="1:9" ht="29.4" customHeight="1">
+      <c r="A1" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1">
-      <c r="C2" s="96" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.2" customHeight="1">
+      <c r="A2" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="100"/>
+    </row>
+    <row r="3" spans="1:9" ht="22.8" customHeight="1">
+      <c r="A3" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+    </row>
+    <row r="4" spans="1:9" ht="27" customHeight="1">
+      <c r="A4" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="100"/>
+    </row>
+    <row r="5" spans="1:9" ht="26.4" customHeight="1">
+      <c r="A5" s="112" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+    </row>
+    <row r="6" spans="1:9" ht="34.799999999999997" customHeight="1">
+      <c r="A6" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+    </row>
+    <row r="7" spans="1:9" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="79"/>
+    </row>
+    <row r="8" spans="1:9" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="114"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:9" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="79"/>
+    </row>
+    <row r="10" spans="1:9" s="40" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A10" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+    </row>
+    <row r="11" spans="1:9" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A11" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1">
-      <c r="C3" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" customHeight="1">
-      <c r="C4" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-    </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="C5" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
-    </row>
-    <row r="6" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A6" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-    </row>
-    <row r="7" spans="1:8" s="47" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="113"/>
-    </row>
-    <row r="8" spans="1:8" s="47" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="113"/>
-    </row>
-    <row r="9" spans="1:8" s="47" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="113"/>
-    </row>
-    <row r="10" spans="1:8" s="49" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-    </row>
-    <row r="11" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="89" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="47" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="50"/>
-    </row>
-    <row r="13" spans="1:8" s="47" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="50"/>
-    </row>
-    <row r="14" spans="1:8" s="47" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="50"/>
-    </row>
-    <row r="15" spans="1:8" s="47" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="16" spans="1:8" s="47" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" spans="1:11" s="47" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="50"/>
-    </row>
-    <row r="18" spans="1:11" s="47" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:11" s="47" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="1:11" s="47" customFormat="1" ht="34.799999999999997" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="50"/>
-      <c r="K20" s="44"/>
-    </row>
-    <row r="21" spans="1:11" s="47" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22" spans="1:11" s="47" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="1:11" s="47" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="109" t="s">
+    <row r="12" spans="1:9" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
+    </row>
+    <row r="13" spans="1:9" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
+    </row>
+    <row r="14" spans="1:9" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
+    </row>
+    <row r="15" spans="1:9" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+    </row>
+    <row r="16" spans="1:9" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
+    </row>
+    <row r="17" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
+    </row>
+    <row r="18" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
+    </row>
+    <row r="19" spans="1:8" s="38" customFormat="1" ht="35.4" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
+    </row>
+    <row r="20" spans="1:8" s="38" customFormat="1" ht="34.799999999999997" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
+    </row>
+    <row r="21" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="97"/>
+    </row>
+    <row r="22" spans="1:8" s="38" customFormat="1" ht="38.4" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="97"/>
+    </row>
+    <row r="23" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="107">
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="87">
         <f>SUM(G12:G22)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="108"/>
-    </row>
-    <row r="24" spans="1:11" s="47" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="109" t="s">
+      <c r="H23" s="88"/>
+    </row>
+    <row r="24" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="106"/>
-    </row>
-    <row r="25" spans="1:11" s="47" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="107">
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+    </row>
+    <row r="25" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="87">
         <f>SUM(G23:H24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="108"/>
-    </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1">
-      <c r="A26" s="54" t="s">
+      <c r="H25" s="88"/>
+    </row>
+    <row r="26" spans="1:8" ht="21" customHeight="1">
+      <c r="A26" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-    </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1">
-      <c r="A27" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
-    </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1">
-      <c r="A28" s="101" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="1:8" ht="21" customHeight="1">
+      <c r="A27" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:8" ht="21" customHeight="1">
+      <c r="A28" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
-    </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1">
-      <c r="A29" s="103" t="s">
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+    </row>
+    <row r="29" spans="1:8" ht="21" customHeight="1">
+      <c r="A29" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="62"/>
-    </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-    </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1">
-      <c r="A31" s="99" t="s">
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
+    </row>
+    <row r="30" spans="1:8" ht="21" customHeight="1">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8" ht="21" customHeight="1">
+      <c r="A31" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="100" t="s">
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-    </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+    </row>
+    <row r="32" spans="1:8" ht="21" customHeight="1">
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
-      <c r="A36" s="99"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
-      <c r="A37" s="99"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="21">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:H5"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:D37"/>
-    <mergeCell ref="F31:H37"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A31:C36"/>
+    <mergeCell ref="E31:H36"/>
     <mergeCell ref="A10:H10"/>
-    <mergeCell ref="C5:H5"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A7:B7"/>
@@ -2886,8 +3067,8 @@
     <mergeCell ref="C9:H9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" scale="25" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B839CC97-26C3-4895-B447-8D6C38E2D22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D66788D-F064-456B-A788-6901EA4F7D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -692,7 +692,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -846,6 +846,87 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -873,62 +954,41 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -942,89 +1002,20 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1032,14 +1023,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1227,22 +1221,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>197430</xdr:colOff>
+      <xdr:colOff>224795</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>271669</xdr:rowOff>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1404257</xdr:colOff>
+      <xdr:colOff>1376337</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA32FBC-4229-8958-1891-EAF9DC717EA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F870D41A-F351-4396-4271-05D1BF8B038C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,23 +1244,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="19263" t="21683" r="19376" b="14534"/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13227630" y="271669"/>
-          <a:ext cx="1206827" cy="1241445"/>
+          <a:off x="13146138" y="87086"/>
+          <a:ext cx="1151542" cy="1469571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1596,112 +1583,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1746,7 +1733,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="71" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1770,7 +1757,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1792,7 +1779,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="68"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1814,7 +1801,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="68"/>
+      <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1836,7 +1823,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="68"/>
+      <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1858,7 +1845,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="69"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1909,18 +1896,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73">
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="74"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1956,22 +1943,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1989,11 +1976,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -2005,71 +1992,77 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
       <c r="D28"/>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A28:C34"/>
     <mergeCell ref="E28:G34"/>
     <mergeCell ref="A6:G6"/>
@@ -2083,12 +2076,6 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2119,112 +2106,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2405,18 +2392,18 @@
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77" t="e">
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90" t="e">
         <f>SUM('CH2'!A19:E19F12:F17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G19" s="77"/>
+      <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="13"/>
@@ -2449,22 +2436,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2482,11 +2469,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2498,76 +2485,71 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27"/>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A27:C33"/>
-    <mergeCell ref="E27:G33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B1:G1"/>
@@ -2581,6 +2563,11 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A27:C33"/>
+    <mergeCell ref="E27:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2596,7 +2583,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -2612,69 +2599,67 @@
     <col min="9" max="11" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.4" customHeight="1">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:8" ht="29.4" customHeight="1">
+      <c r="A1" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.2" customHeight="1">
-      <c r="A2" s="111" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.2" customHeight="1">
+      <c r="A2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="100"/>
-    </row>
-    <row r="3" spans="1:9" ht="22.8" customHeight="1">
-      <c r="A3" s="111" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.8" customHeight="1">
+      <c r="A3" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1">
-      <c r="A4" s="111" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1">
+      <c r="A4" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="100"/>
-    </row>
-    <row r="5" spans="1:9" ht="26.4" customHeight="1">
-      <c r="A5" s="112" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+    </row>
+    <row r="5" spans="1:8" ht="26.4" customHeight="1">
+      <c r="A5" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-    </row>
-    <row r="6" spans="1:9" ht="34.799999999999997" customHeight="1">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.799999999999997" customHeight="1">
       <c r="A6" s="108" t="s">
         <v>54</v>
       </c>
@@ -2686,230 +2671,231 @@
       <c r="G6" s="108"/>
       <c r="H6" s="108"/>
     </row>
-    <row r="7" spans="1:9" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="113" t="s">
+    <row r="7" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="79"/>
-    </row>
-    <row r="8" spans="1:9" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="113" t="s">
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
+    </row>
+    <row r="8" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:9" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="113" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
+    </row>
+    <row r="9" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="79"/>
-    </row>
-    <row r="10" spans="1:9" s="40" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="102" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="114"/>
+    </row>
+    <row r="10" spans="1:8" s="40" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A10" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-    </row>
-    <row r="11" spans="1:9" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A11" s="89" t="s">
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+    </row>
+    <row r="11" spans="1:8" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="89" t="s">
+      <c r="H11" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
-    </row>
-    <row r="13" spans="1:9" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
-    </row>
-    <row r="14" spans="1:9" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
-    </row>
-    <row r="15" spans="1:9" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-    </row>
-    <row r="16" spans="1:9" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
+    <row r="12" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+    </row>
+    <row r="15" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="16" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="97"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A18" s="92"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="1:8" s="38" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:8" s="38" customFormat="1" ht="34.799999999999997" customHeight="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="97"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A21" s="92"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" s="38" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="97"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="87">
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="96">
         <f>SUM(G12:G22)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="88"/>
+      <c r="H23" s="97"/>
     </row>
     <row r="24" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95"/>
     </row>
     <row r="25" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="87">
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="96">
         <f>SUM(G23:H24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="97"/>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
       <c r="A26" s="44" t="s">
@@ -2924,11 +2910,11 @@
       <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
       <c r="F27" s="47"/>
@@ -2936,11 +2922,11 @@
       <c r="H27" s="48"/>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
@@ -2948,11 +2934,11 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
@@ -2970,80 +2956,86 @@
       <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="105" t="s">
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
-      <c r="A35" s="104"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
-      <c r="A36" s="104"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C36"/>
+    <mergeCell ref="E31:H36"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H5"/>
     <mergeCell ref="G24:H24"/>
@@ -3052,11 +3044,6 @@
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C36"/>
-    <mergeCell ref="E31:H36"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A8:B8"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D66788D-F064-456B-A788-6901EA4F7D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474918DE-F6A0-420E-9088-B6B1AD407185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -885,6 +885,33 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -927,39 +954,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -990,24 +1014,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,12 +1037,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1583,112 +1583,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1733,7 +1733,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="80" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1779,7 +1779,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="72"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1801,7 +1801,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="81"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1823,7 +1823,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="72"/>
+      <c r="G16" s="81"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1845,7 +1845,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="73"/>
+      <c r="G17" s="82"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1896,18 +1896,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="78"/>
+      <c r="G20" s="87"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1943,22 +1943,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1976,11 +1976,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -1992,77 +1992,71 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
       <c r="D28"/>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A28:C34"/>
     <mergeCell ref="E28:G34"/>
     <mergeCell ref="A6:G6"/>
@@ -2076,6 +2070,12 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2106,112 +2106,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2436,22 +2436,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2469,11 +2469,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2485,71 +2485,76 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
       <c r="D27"/>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A27:C33"/>
+    <mergeCell ref="E27:G33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B1:G1"/>
@@ -2563,11 +2568,6 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A27:C33"/>
-    <mergeCell ref="E27:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2580,10 +2580,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -2600,16 +2600,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.4" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:8" ht="28.2" customHeight="1">
       <c r="A2" s="64" t="s">
@@ -2618,10 +2618,10 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" customHeight="1">
       <c r="A3" s="64" t="s">
@@ -2630,10 +2630,10 @@
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="64" t="s">
@@ -2642,10 +2642,10 @@
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
     </row>
     <row r="5" spans="1:8" ht="26.4" customHeight="1">
       <c r="A5" s="65" t="s">
@@ -2654,70 +2654,70 @@
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
     </row>
     <row r="7" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="116"/>
     </row>
     <row r="8" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="116"/>
     </row>
     <row r="9" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
     </row>
     <row r="10" spans="1:8" s="40" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
     </row>
     <row r="11" spans="1:8" s="35" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="53" t="s">
@@ -2845,7 +2845,7 @@
       <c r="G21" s="59"/>
       <c r="H21" s="60"/>
     </row>
-    <row r="22" spans="1:8" s="38" customFormat="1" ht="38.4" customHeight="1">
+    <row r="22" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
       <c r="A22" s="56"/>
       <c r="B22" s="57"/>
       <c r="C22" s="62"/>
@@ -2855,195 +2855,239 @@
       <c r="G22" s="59"/>
       <c r="H22" s="60"/>
     </row>
-    <row r="23" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="98" t="s">
+    <row r="23" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+    </row>
+    <row r="24" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
+    </row>
+    <row r="25" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
+    </row>
+    <row r="26" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="60"/>
+    </row>
+    <row r="27" spans="1:8" s="38" customFormat="1" ht="38.4" customHeight="1">
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="60"/>
+    </row>
+    <row r="28" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="96">
-        <f>SUM(G12:G22)</f>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="104">
+        <f>SUM(G12:G27)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="97"/>
-    </row>
-    <row r="24" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="98" t="s">
+      <c r="H28" s="105"/>
+    </row>
+    <row r="29" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="95"/>
-    </row>
-    <row r="25" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="98" t="s">
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+    </row>
+    <row r="30" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="96">
-        <f>SUM(G23:H24)</f>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="104">
+        <f>SUM(G28:H29)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="97"/>
-    </row>
-    <row r="26" spans="1:8" ht="21" customHeight="1">
-      <c r="A26" s="44" t="s">
+      <c r="H30" s="105"/>
+    </row>
+    <row r="31" spans="1:8" ht="21" customHeight="1">
+      <c r="A31" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-    </row>
-    <row r="27" spans="1:8" ht="21" customHeight="1">
-      <c r="A27" s="101" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+    </row>
+    <row r="32" spans="1:8" ht="21" customHeight="1">
+      <c r="A32" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-    </row>
-    <row r="28" spans="1:8" ht="21" customHeight="1">
-      <c r="A28" s="101" t="s">
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="1:8" ht="21" customHeight="1">
+      <c r="A33" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-    </row>
-    <row r="29" spans="1:8" ht="21" customHeight="1">
-      <c r="A29" s="103" t="s">
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+    </row>
+    <row r="34" spans="1:8" ht="21" customHeight="1">
+      <c r="A34" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-    </row>
-    <row r="30" spans="1:8" ht="21" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8" ht="21" customHeight="1">
-      <c r="A31" s="105" t="s">
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="52"/>
+    </row>
+    <row r="35" spans="1:8" ht="21" customHeight="1">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" ht="21" customHeight="1">
+      <c r="A36" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="106" t="s">
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-    </row>
-    <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-    </row>
-    <row r="33" spans="1:8" ht="21" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-    </row>
-    <row r="34" spans="1:8" ht="21" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-    </row>
-    <row r="35" spans="1:8" ht="21" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-    </row>
-    <row r="36" spans="1:8" ht="21" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+    </row>
+    <row r="38" spans="1:8" ht="21" customHeight="1">
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+    </row>
+    <row r="39" spans="1:8" ht="21" customHeight="1">
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+    </row>
+    <row r="40" spans="1:8" ht="21" customHeight="1">
+      <c r="A40" s="97"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+    </row>
+    <row r="41" spans="1:8" ht="21" customHeight="1">
+      <c r="A41" s="97"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+    </row>
+    <row r="42" spans="1:8" ht="21" customHeight="1">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A31:C36"/>
-    <mergeCell ref="E31:H36"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H5"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A8:B8"/>
@@ -3052,6 +3096,12 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A36:C41"/>
+    <mergeCell ref="E36:H41"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474918DE-F6A0-420E-9088-B6B1AD407185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148FA2B3-6933-4A4C-9C69-3DA1A72A0459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -885,6 +885,48 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -912,54 +954,66 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -983,60 +1037,6 @@
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1583,112 +1583,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1733,7 +1733,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="71" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="81"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1779,7 +1779,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1801,7 +1801,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="81"/>
+      <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1823,7 +1823,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="81"/>
+      <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1845,7 +1845,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="82"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1896,18 +1896,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86">
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="87"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1943,22 +1943,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1976,11 +1976,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -1992,71 +1992,77 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
       <c r="D28"/>
-      <c r="E28" s="76" t="s">
+      <c r="E28" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A28:C34"/>
     <mergeCell ref="E28:G34"/>
     <mergeCell ref="A6:G6"/>
@@ -2070,12 +2076,6 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2106,112 +2106,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2436,22 +2436,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2469,11 +2469,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2485,76 +2485,71 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27"/>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A27:C33"/>
-    <mergeCell ref="E27:G33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B1:G1"/>
@@ -2568,6 +2563,11 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A27:C33"/>
+    <mergeCell ref="E27:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2580,10 +2580,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H27"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -2600,16 +2600,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.4" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="1:8" ht="28.2" customHeight="1">
       <c r="A2" s="64" t="s">
@@ -2618,10 +2618,10 @@
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" customHeight="1">
       <c r="A3" s="64" t="s">
@@ -2630,10 +2630,10 @@
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="64" t="s">
@@ -2642,10 +2642,10 @@
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" spans="1:8" ht="26.4" customHeight="1">
       <c r="A5" s="65" t="s">
@@ -2654,70 +2654,70 @@
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
     </row>
     <row r="7" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="116"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108"/>
     </row>
     <row r="8" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="116"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108"/>
     </row>
     <row r="9" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="108"/>
     </row>
     <row r="10" spans="1:8" s="40" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
     </row>
     <row r="11" spans="1:8" s="35" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="53" t="s">
@@ -2895,199 +2895,195 @@
       <c r="G26" s="59"/>
       <c r="H26" s="60"/>
     </row>
-    <row r="27" spans="1:8" s="38" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
+    <row r="27" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="96">
+        <f>SUM(G12:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="97"/>
     </row>
     <row r="28" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="104">
-        <f>SUM(G12:G27)</f>
+      <c r="A28" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="95"/>
+    </row>
+    <row r="29" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="96">
+        <f>SUM(G27:H28)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="105"/>
-    </row>
-    <row r="29" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
-    </row>
-    <row r="30" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="104">
-        <f>SUM(G28:H29)</f>
+      <c r="H29" s="97"/>
+    </row>
+    <row r="30" spans="1:8" ht="21" customHeight="1">
+      <c r="A30" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8" ht="21" customHeight="1">
+      <c r="A31" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="1:8" ht="21" customHeight="1">
+      <c r="A32" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+    </row>
+    <row r="33" spans="1:8" ht="21" customHeight="1">
+      <c r="A33" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8" ht="21" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" ht="21" customHeight="1">
+      <c r="A35" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="105"/>
-    </row>
-    <row r="31" spans="1:8" ht="21" customHeight="1">
-      <c r="A31" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
-    </row>
-    <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
-    </row>
-    <row r="33" spans="1:8" ht="21" customHeight="1">
-      <c r="A33" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-    </row>
-    <row r="34" spans="1:8" ht="21" customHeight="1">
-      <c r="A34" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="52"/>
-    </row>
-    <row r="35" spans="1:8" ht="21" customHeight="1">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
-      <c r="A36" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="61"/>
-      <c r="E36" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
-      <c r="A37" s="97"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="61"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
-      <c r="A38" s="97"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="61"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
-      <c r="A39" s="97"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="61"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
-      <c r="A40" s="97"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="61"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
-      <c r="A41" s="97"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-    </row>
-    <row r="42" spans="1:8" ht="21" customHeight="1">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C40"/>
+    <mergeCell ref="E35:H40"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H5"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A8:B8"/>
@@ -3096,12 +3092,6 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A36:C41"/>
-    <mergeCell ref="E36:H41"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148FA2B3-6933-4A4C-9C69-3DA1A72A0459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8657B7-B537-4F96-A76E-A44FCAF97A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t>Người bán hàng</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>HÃNG</t>
-  </si>
-  <si>
-    <t>NHÓM LINH KIỆN</t>
   </si>
   <si>
     <t>THÀNH TIỀN:</t>
@@ -465,7 +462,7 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -692,7 +689,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -858,9 +855,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,9 +867,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -885,6 +876,33 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -927,39 +945,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1014,29 +1029,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1583,112 +1586,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1733,7 +1736,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="78" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1757,7 +1760,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="79"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1779,7 +1782,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="72"/>
+      <c r="G14" s="79"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1801,7 +1804,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="79"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1823,7 +1826,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="72"/>
+      <c r="G16" s="79"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1845,7 +1848,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="73"/>
+      <c r="G17" s="80"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1896,18 +1899,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77">
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="78"/>
+      <c r="G20" s="85"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1943,22 +1946,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1976,11 +1979,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -1992,77 +1995,71 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
       <c r="D28"/>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A28:C34"/>
     <mergeCell ref="E28:G34"/>
     <mergeCell ref="A6:G6"/>
@@ -2076,6 +2073,12 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2106,112 +2109,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2392,18 +2395,18 @@
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90" t="e">
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88" t="e">
         <f>SUM('CH2'!A19:E19F12:F17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G19" s="90"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="13"/>
@@ -2436,22 +2439,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2469,11 +2472,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2485,71 +2488,76 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
       <c r="D27"/>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A27:C33"/>
+    <mergeCell ref="E27:G33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B1:G1"/>
@@ -2563,11 +2571,6 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A27:C33"/>
-    <mergeCell ref="E27:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2582,15 +2585,15 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="39" customWidth="1"/>
     <col min="2" max="2" width="23.21875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="81.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="72.109375" style="39" customWidth="1"/>
     <col min="4" max="4" width="21" style="39" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="41" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="42" customWidth="1"/>
@@ -2600,135 +2603,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.4" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" ht="28.2" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.8" customHeight="1">
+      <c r="A3" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1">
+      <c r="A4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+    </row>
+    <row r="5" spans="1:8" ht="26.4" customHeight="1">
+      <c r="A5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-    </row>
-    <row r="5" spans="1:8" ht="26.4" customHeight="1">
-      <c r="A5" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
+      <c r="A6" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
     </row>
     <row r="7" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
     </row>
     <row r="8" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
     </row>
     <row r="9" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="114"/>
     </row>
     <row r="10" spans="1:8" s="40" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
     </row>
     <row r="11" spans="1:8" s="35" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="115" t="s">
         <v>13</v>
       </c>
+      <c r="C11" s="116"/>
       <c r="D11" s="53" t="s">
         <v>49</v>
       </c>
@@ -2747,195 +2748,238 @@
     </row>
     <row r="12" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
       <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="62"/>
       <c r="D12" s="56"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58">
+        <f>F12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
       <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="56"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58">
+        <f t="shared" ref="G13:G26" si="0">F13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
       <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="56"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
       <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="56"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
       <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="56"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
       <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="56"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="62"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="56"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:8" s="38" customFormat="1" ht="35.4" customHeight="1">
       <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="62"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="56"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:8" s="38" customFormat="1" ht="34.799999999999997" customHeight="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="56"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
       <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="62"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="56"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
       <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
       <c r="A23" s="56"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="56"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
       <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="56"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
       <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="62"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="56"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58">
+        <f>F25*E25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
       <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="62"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="56"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="96">
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="102">
         <f>SUM(G12:G26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="97"/>
+      <c r="H27" s="103"/>
     </row>
     <row r="28" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="95"/>
+      <c r="A28" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
     </row>
     <row r="29" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="96">
+      <c r="A29" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="102">
         <f>SUM(G27:H28)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="97"/>
+      <c r="H29" s="103"/>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
       <c r="A30" s="44" t="s">
@@ -2950,11 +2994,11 @@
       <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
-      <c r="A31" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
+      <c r="A31" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
@@ -2962,11 +3006,11 @@
       <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="49"/>
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
@@ -2974,11 +3018,11 @@
       <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
@@ -2996,86 +3040,87 @@
       <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="116" t="s">
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
-      <c r="A36" s="115"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
-      <c r="A37" s="115"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
-      <c r="A38" s="115"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
-      <c r="A39" s="115"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
-      <c r="A40" s="115"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A35:C40"/>
-    <mergeCell ref="E35:H40"/>
+  <mergeCells count="37">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H5"/>
     <mergeCell ref="G28:H28"/>
@@ -3092,6 +3137,20 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C40"/>
+    <mergeCell ref="E35:H40"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8657B7-B537-4F96-A76E-A44FCAF97A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C45A9D-B018-4038-A8E3-0F1988AB0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
   <si>
     <t>Người bán hàng</t>
   </si>
@@ -265,7 +265,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;₫&quot;"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,12 +461,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -689,7 +683,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -876,6 +870,57 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -903,54 +948,60 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,72 +1025,6 @@
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1173,13 +1158,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>125226</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>179319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1679908</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>268062</xdr:rowOff>
@@ -1223,13 +1208,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>224795</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1376337</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
@@ -1586,112 +1571,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="83"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1736,7 +1721,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="72" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1760,7 +1745,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="79"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1782,7 +1767,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="79"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1804,7 +1789,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="79"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1826,7 +1811,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="79"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1848,7 +1833,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="80"/>
+      <c r="G17" s="74"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1899,18 +1884,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84">
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="85"/>
+      <c r="G20" s="79"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1946,22 +1931,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1979,11 +1964,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -1995,71 +1980,77 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
       <c r="D28"/>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A28:C34"/>
     <mergeCell ref="E28:G34"/>
     <mergeCell ref="A6:G6"/>
@@ -2073,12 +2064,6 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2109,112 +2094,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="83"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2395,18 +2380,18 @@
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88" t="e">
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91" t="e">
         <f>SUM('CH2'!A19:E19F12:F17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G19" s="88"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="13"/>
@@ -2439,22 +2424,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2472,11 +2457,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2488,76 +2473,71 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
       <c r="D27"/>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A27:C33"/>
-    <mergeCell ref="E27:G33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B1:G1"/>
@@ -2571,6 +2551,11 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A27:C33"/>
+    <mergeCell ref="E27:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2583,574 +2568,346 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="72.109375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="21" style="39" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" style="42" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="39" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" style="39"/>
+    <col min="1" max="1" width="20.6640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="77.33203125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="21" style="39" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="39" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.4" customHeight="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:7" ht="29.4" customHeight="1">
+      <c r="A1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-    </row>
-    <row r="2" spans="1:8" ht="28.2" customHeight="1">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.2" customHeight="1">
       <c r="A2" s="62" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.8" customHeight="1">
+      <c r="D2" s="108"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.8" customHeight="1">
       <c r="A3" s="62" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1">
+      <c r="D3" s="108"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" customHeight="1">
       <c r="A4" s="62" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-    </row>
-    <row r="5" spans="1:8" ht="26.4" customHeight="1">
+      <c r="D4" s="108"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.4" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="D5" s="109"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+    </row>
+    <row r="6" spans="1:7" ht="34.799999999999997" customHeight="1">
+      <c r="A6" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-    </row>
-    <row r="7" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="110" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+    </row>
+    <row r="7" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
-    </row>
-    <row r="8" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="110" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
+    </row>
+    <row r="8" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114"/>
-    </row>
-    <row r="9" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="110" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
+    </row>
+    <row r="9" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
-    </row>
-    <row r="10" spans="1:8" s="40" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="107" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+    </row>
+    <row r="10" spans="1:7" s="40" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A10" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-    </row>
-    <row r="11" spans="1:8" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+    </row>
+    <row r="11" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="115" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="53" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="54" t="s">
         <v>30</v>
       </c>
+      <c r="E11" s="55" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="G11" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
+    <row r="12" spans="1:7" s="38" customFormat="1" ht="30.75" customHeight="1">
       <c r="A12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58">
-        <f>F12*E12</f>
+      <c r="B12" s="66"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58">
+        <f>E12*D12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="59"/>
-    </row>
-    <row r="13" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58">
-        <f t="shared" ref="G13:G26" si="0">F13*E13</f>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="97">
+        <f>SUM(F12:F12)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="59"/>
-    </row>
-    <row r="14" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58">
-        <f t="shared" si="0"/>
+      <c r="G13" s="98"/>
+    </row>
+    <row r="14" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
+    </row>
+    <row r="15" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="97">
+        <f>SUM(F13:G14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="59"/>
-    </row>
-    <row r="15" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58">
-        <f t="shared" si="0"/>
+      <c r="G15" s="98"/>
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1">
+      <c r="A16" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1">
+      <c r="A17" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1">
+      <c r="A18" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="1:7" ht="21" customHeight="1">
+      <c r="A19" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="113"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="21" customHeight="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" ht="21" customHeight="1">
+      <c r="A21" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="114"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="59"/>
-    </row>
-    <row r="16" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="59"/>
-    </row>
-    <row r="18" spans="1:8" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="59"/>
-    </row>
-    <row r="19" spans="1:8" s="38" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="1:8" s="38" customFormat="1" ht="34.799999999999997" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="59"/>
-    </row>
-    <row r="22" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="59"/>
-    </row>
-    <row r="23" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="59"/>
-    </row>
-    <row r="24" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="59"/>
-    </row>
-    <row r="25" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58">
-        <f>F25*E25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="59"/>
-    </row>
-    <row r="26" spans="1:8" s="38" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="59"/>
-    </row>
-    <row r="27" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="102">
-        <f>SUM(G12:G26)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="103"/>
-    </row>
-    <row r="28" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-    </row>
-    <row r="29" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="102">
-        <f>SUM(G27:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="103"/>
-    </row>
-    <row r="30" spans="1:8" ht="21" customHeight="1">
-      <c r="A30" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
-    </row>
-    <row r="31" spans="1:8" ht="21" customHeight="1">
-      <c r="A31" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-    </row>
-    <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-    </row>
-    <row r="33" spans="1:8" ht="21" customHeight="1">
-      <c r="A33" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
-    </row>
-    <row r="34" spans="1:8" ht="21" customHeight="1">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="35" spans="1:8" ht="21" customHeight="1">
-      <c r="A35" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-    </row>
-    <row r="36" spans="1:8" ht="21" customHeight="1">
-      <c r="A36" s="95"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-    </row>
-    <row r="37" spans="1:8" ht="21" customHeight="1">
-      <c r="A37" s="95"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-    </row>
-    <row r="38" spans="1:8" ht="21" customHeight="1">
-      <c r="A38" s="95"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-    </row>
-    <row r="39" spans="1:8" ht="21" customHeight="1">
-      <c r="A39" s="95"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-    </row>
-    <row r="40" spans="1:8" ht="21" customHeight="1">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-    </row>
-    <row r="41" spans="1:8" ht="21" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+    </row>
+    <row r="22" spans="1:7" ht="21" customHeight="1">
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" customHeight="1">
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+    </row>
+    <row r="24" spans="1:7" ht="21" customHeight="1">
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+    </row>
+    <row r="25" spans="1:7" ht="21" customHeight="1">
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+    </row>
+    <row r="26" spans="1:7" ht="21" customHeight="1">
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" customHeight="1">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:H5"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A35:C40"/>
-    <mergeCell ref="E35:H40"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+  <mergeCells count="19">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B26"/>
+    <mergeCell ref="D21:G26"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:G5"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C45A9D-B018-4038-A8E3-0F1988AB0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086C6B15-D738-44D0-8B05-05A717E15AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -683,7 +683,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -846,18 +846,6 @@
     <xf numFmtId="164" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -873,11 +861,32 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -921,39 +930,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,23 +1008,29 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1571,112 +1577,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1721,7 +1727,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="75" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1745,7 +1751,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="73"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1767,7 +1773,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="73"/>
+      <c r="G14" s="76"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1789,7 +1795,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="73"/>
+      <c r="G15" s="76"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1811,7 +1817,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="73"/>
+      <c r="G16" s="76"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1833,7 +1839,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="74"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1884,18 +1890,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="79"/>
+      <c r="G20" s="82"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1931,22 +1937,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1964,11 +1970,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -1980,77 +1986,71 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
       <c r="D28"/>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A28:C34"/>
     <mergeCell ref="E28:G34"/>
     <mergeCell ref="A6:G6"/>
@@ -2064,6 +2064,12 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2094,112 +2100,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2380,18 +2386,18 @@
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91" t="e">
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85" t="e">
         <f>SUM('CH2'!A19:E19F12:F17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G19" s="91"/>
+      <c r="G19" s="85"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="13"/>
@@ -2424,22 +2430,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2457,11 +2463,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2473,71 +2479,76 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
       <c r="D27"/>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A27:C33"/>
+    <mergeCell ref="E27:G33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B1:G1"/>
@@ -2551,11 +2562,6 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A27:C33"/>
-    <mergeCell ref="E27:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2568,10 +2574,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -2598,44 +2604,44 @@
       <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:7" ht="28.2" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="108"/>
       <c r="E2" s="93"/>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
     </row>
     <row r="3" spans="1:7" ht="22.8" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="108"/>
       <c r="E3" s="93"/>
       <c r="F3" s="93"/>
       <c r="G3" s="93"/>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="108"/>
       <c r="E4" s="93"/>
       <c r="F4" s="93"/>
       <c r="G4" s="93"/>
     </row>
     <row r="5" spans="1:7" ht="26.4" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="109"/>
       <c r="E5" s="94"/>
       <c r="F5" s="94"/>
@@ -2653,7 +2659,7 @@
       <c r="G6" s="103"/>
     </row>
     <row r="7" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="105"/>
@@ -2664,7 +2670,7 @@
       <c r="G7" s="107"/>
     </row>
     <row r="8" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="105"/>
@@ -2675,7 +2681,7 @@
       <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="105"/>
@@ -2700,7 +2706,7 @@
       <c r="A11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="53" t="s">
         <v>49</v>
       </c>
@@ -2717,197 +2723,377 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58">
-        <f>E12*D12</f>
+    <row r="12" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="116">
+        <f t="shared" ref="F12:F26" si="0">E12*D12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="59"/>
-    </row>
-    <row r="13" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="99" t="s">
+      <c r="G12" s="113"/>
+    </row>
+    <row r="13" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="113"/>
+    </row>
+    <row r="14" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="113"/>
+    </row>
+    <row r="15" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="113"/>
+    </row>
+    <row r="16" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="113"/>
+    </row>
+    <row r="17" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="113"/>
+    </row>
+    <row r="18" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A18" s="110"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="113"/>
+    </row>
+    <row r="19" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="113"/>
+    </row>
+    <row r="20" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A20" s="110"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="113"/>
+    </row>
+    <row r="21" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A21" s="110"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="113"/>
+    </row>
+    <row r="22" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A22" s="110"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="113"/>
+    </row>
+    <row r="23" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="113"/>
+    </row>
+    <row r="24" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A24" s="110"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="113"/>
+    </row>
+    <row r="25" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A25" s="110"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="113"/>
+    </row>
+    <row r="26" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A26" s="110"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="113"/>
+    </row>
+    <row r="27" spans="1:7" s="38" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A27" s="114"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116">
+        <f>E27*D27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="117"/>
+    </row>
+    <row r="28" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="97">
-        <f>SUM(F12:F12)</f>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="97">
+        <f>SUM(F27:F27)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="98"/>
-    </row>
-    <row r="14" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="99" t="s">
+      <c r="G28" s="98"/>
+    </row>
+    <row r="29" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
-    </row>
-    <row r="15" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
+    </row>
+    <row r="30" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="97">
-        <f>SUM(F13:G14)</f>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="97">
+        <f>SUM(F28:G29)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="98"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="G30" s="98"/>
+    </row>
+    <row r="31" spans="1:7" ht="21" customHeight="1">
+      <c r="A31" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1">
-      <c r="A17" s="110" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+    </row>
+    <row r="32" spans="1:7" ht="21" customHeight="1">
+      <c r="A32" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1">
-      <c r="A18" s="110" t="s">
+      <c r="B32" s="87"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="1:7" ht="21" customHeight="1">
+      <c r="A33" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-    </row>
-    <row r="19" spans="1:7" ht="21" customHeight="1">
-      <c r="A19" s="112" t="s">
+      <c r="B33" s="87"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
+    </row>
+    <row r="34" spans="1:7" ht="21" customHeight="1">
+      <c r="A34" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-    </row>
-    <row r="20" spans="1:7" ht="21" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7" ht="21" customHeight="1">
-      <c r="A21" s="114" t="s">
+      <c r="B34" s="89"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+    </row>
+    <row r="35" spans="1:7" ht="21" customHeight="1">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7" ht="21" customHeight="1">
+      <c r="A36" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="115" t="s">
+      <c r="B36" s="90"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-    </row>
-    <row r="22" spans="1:7" ht="21" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-    </row>
-    <row r="23" spans="1:7" ht="21" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-    </row>
-    <row r="24" spans="1:7" ht="21" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-    </row>
-    <row r="25" spans="1:7" ht="21" customHeight="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-    </row>
-    <row r="26" spans="1:7" ht="21" customHeight="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-    </row>
-    <row r="27" spans="1:7" ht="21" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+    </row>
+    <row r="37" spans="1:7" ht="21" customHeight="1">
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+    </row>
+    <row r="38" spans="1:7" ht="21" customHeight="1">
+      <c r="A38" s="90"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+    </row>
+    <row r="39" spans="1:7" ht="21" customHeight="1">
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+    </row>
+    <row r="40" spans="1:7" ht="21" customHeight="1">
+      <c r="A40" s="90"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+    </row>
+    <row r="41" spans="1:7" ht="21" customHeight="1">
+      <c r="A41" s="90"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+    </row>
+    <row r="42" spans="1:7" ht="21" customHeight="1">
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B26"/>
-    <mergeCell ref="D21:G26"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G5"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B41"/>
+    <mergeCell ref="D36:G41"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086C6B15-D738-44D0-8B05-05A717E15AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8738F067-B4DF-4A7F-84D9-A66C942CF5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -807,36 +807,6 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,6 +831,72 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -888,65 +924,65 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -954,83 +990,47 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1577,112 +1577,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1727,7 +1727,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="64" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="76"/>
+      <c r="G13" s="65"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1773,7 +1773,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="76"/>
+      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1795,7 +1795,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="76"/>
+      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1817,7 +1817,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="76"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1839,7 +1839,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="77"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1890,18 +1890,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="82"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1937,22 +1937,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1970,11 +1970,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -1986,71 +1986,77 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
       <c r="D28"/>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A28:C34"/>
     <mergeCell ref="E28:G34"/>
     <mergeCell ref="A6:G6"/>
@@ -2064,12 +2070,6 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2100,112 +2100,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2386,18 +2386,18 @@
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85" t="e">
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83" t="e">
         <f>SUM('CH2'!A19:E19F12:F17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G19" s="85"/>
+      <c r="G19" s="83"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="13"/>
@@ -2430,22 +2430,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2463,11 +2463,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2479,76 +2479,71 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
       <c r="D27"/>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A27:C33"/>
-    <mergeCell ref="E27:G33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B1:G1"/>
@@ -2562,6 +2557,11 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A27:C33"/>
+    <mergeCell ref="E27:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2576,8 +2576,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -2593,410 +2593,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:7" ht="28.2" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:7" ht="22.8" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" ht="26.4" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="99"/>
     </row>
     <row r="8" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
     </row>
     <row r="9" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
     </row>
     <row r="10" spans="1:7" s="40" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="11" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A12" s="110"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="116">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="57">
         <f t="shared" ref="F12:F26" si="0">E12*D12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="113"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="110"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="116">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="113"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="110"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="116">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="113"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="116">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="113"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="116">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="113"/>
+      <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A17" s="110"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="116">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="113"/>
+      <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A18" s="110"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="116">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="113"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="116">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="113"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="116">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="113"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="116">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="113"/>
+      <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="116">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="113"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="116">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="113"/>
+      <c r="G23" s="54"/>
     </row>
     <row r="24" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="116">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="113"/>
+      <c r="G24" s="54"/>
     </row>
     <row r="25" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="116">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="113"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="116">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="113"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:7" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A27" s="114"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116">
+      <c r="A27" s="55"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57">
         <f>E27*D27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="117"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="97">
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="89">
         <f>SUM(F27:F27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="98"/>
+      <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="96"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="97">
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="89">
         <f>SUM(F28:G29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="98"/>
+      <c r="G30" s="90"/>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="111"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="117"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="38"/>
@@ -3008,73 +3008,78 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="21" customHeight="1">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="91" t="s">
+      <c r="B36" s="102"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1">
-      <c r="A38" s="90"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
     </row>
     <row r="39" spans="1:7" ht="21" customHeight="1">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
     </row>
     <row r="40" spans="1:7" ht="21" customHeight="1">
-      <c r="A40" s="90"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
     </row>
     <row r="41" spans="1:7" ht="21" customHeight="1">
-      <c r="A41" s="90"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
     </row>
     <row r="42" spans="1:7" ht="21" customHeight="1">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B41"/>
+    <mergeCell ref="D36:G41"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G5"/>
     <mergeCell ref="F29:G29"/>
@@ -3089,11 +3094,6 @@
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B41"/>
-    <mergeCell ref="D36:G41"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8738F067-B4DF-4A7F-84D9-A66C942CF5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7321AD7A-36E7-4507-9F34-9610820F9A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -683,7 +683,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -831,18 +831,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,6 +845,63 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -897,39 +945,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,54 +1022,6 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1577,112 +1568,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1727,7 +1718,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="80" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1751,7 +1742,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1773,7 +1764,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1795,7 +1786,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="81"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1817,7 +1808,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="65"/>
+      <c r="G16" s="81"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1839,7 +1830,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="66"/>
+      <c r="G17" s="82"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1890,18 +1881,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="71"/>
+      <c r="G20" s="87"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1937,22 +1928,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1970,11 +1961,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -1986,77 +1977,71 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
       <c r="D28"/>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A28:C34"/>
     <mergeCell ref="E28:G34"/>
     <mergeCell ref="A6:G6"/>
@@ -2070,6 +2055,12 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2100,112 +2091,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2386,18 +2377,18 @@
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83" t="e">
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90" t="e">
         <f>SUM('CH2'!A19:E19F12:F17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G19" s="83"/>
+      <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="13"/>
@@ -2430,22 +2421,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2463,11 +2454,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2479,71 +2470,76 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
       <c r="D27"/>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A27:C33"/>
+    <mergeCell ref="E27:G33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B1:G1"/>
@@ -2557,11 +2553,6 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A27:C33"/>
-    <mergeCell ref="E27:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2576,8 +2567,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:G41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -2593,15 +2584,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:7" ht="28.2" customHeight="1">
       <c r="A2" s="48" t="s">
@@ -2609,10 +2600,10 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
     </row>
     <row r="3" spans="1:7" ht="22.8" customHeight="1">
       <c r="A3" s="48" t="s">
@@ -2620,10 +2611,10 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1">
       <c r="A4" s="48" t="s">
@@ -2631,10 +2622,10 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
     </row>
     <row r="5" spans="1:7" ht="26.4" customHeight="1">
       <c r="A5" s="49" t="s">
@@ -2642,65 +2633,65 @@
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
     </row>
     <row r="7" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="99"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
     </row>
     <row r="8" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
     </row>
     <row r="9" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="99"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
     </row>
     <row r="10" spans="1:7" s="40" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
     </row>
     <row r="11" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="43" t="s">
@@ -2724,279 +2715,279 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="57">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="51">
         <f t="shared" ref="F12:F26" si="0">E12*D12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="54"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="57">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="57">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="54"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="57">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="54"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="57">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="54"/>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="57">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="54"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="57">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="54"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="57">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="57">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="54"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="57">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="54"/>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="57">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="54"/>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="57">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="54"/>
+      <c r="G23" s="55"/>
     </row>
     <row r="24" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="57">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="54"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="57">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="54"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="57">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="54"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:7" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="51">
         <f>E27*D27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="58"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="89">
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="102">
         <f>SUM(F27:F27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="90"/>
+      <c r="G28" s="103"/>
     </row>
     <row r="29" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="88"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="101"/>
     </row>
     <row r="30" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="89">
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="102">
         <f>SUM(F28:G29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="90"/>
+      <c r="G30" s="103"/>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="107"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="111"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="61"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="117"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="65"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="38"/>
@@ -3008,62 +2999,62 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="21" customHeight="1">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="95"/>
       <c r="C36" s="46"/>
-      <c r="D36" s="103" t="s">
+      <c r="D36" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="102"/>
-      <c r="B37" s="102"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="46"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1">
-      <c r="A38" s="102"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="46"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
     </row>
     <row r="39" spans="1:7" ht="21" customHeight="1">
-      <c r="A39" s="102"/>
-      <c r="B39" s="102"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
     </row>
     <row r="40" spans="1:7" ht="21" customHeight="1">
-      <c r="A40" s="102"/>
-      <c r="B40" s="102"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="95"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
     </row>
     <row r="41" spans="1:7" ht="21" customHeight="1">
-      <c r="A41" s="102"/>
-      <c r="B41" s="102"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="95"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
     </row>
     <row r="42" spans="1:7" ht="21" customHeight="1">
       <c r="A42" s="46"/>
@@ -3075,11 +3066,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B41"/>
-    <mergeCell ref="D36:G41"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G5"/>
     <mergeCell ref="F29:G29"/>
@@ -3094,6 +3080,11 @@
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B41"/>
+    <mergeCell ref="D36:G41"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7321AD7A-36E7-4507-9F34-9610820F9A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCA1487-FAD6-47CA-A202-BDF32C30B8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -876,6 +876,48 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -903,54 +945,66 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -968,60 +1022,6 @@
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1568,112 +1568,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1718,7 +1718,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="71" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="81"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1764,7 +1764,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1786,7 +1786,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="81"/>
+      <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1808,7 +1808,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="81"/>
+      <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1830,7 +1830,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="82"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1881,18 +1881,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86">
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="87"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1928,22 +1928,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1961,11 +1961,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -1977,71 +1977,77 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
       <c r="D28"/>
-      <c r="E28" s="76" t="s">
+      <c r="E28" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A28:C34"/>
     <mergeCell ref="E28:G34"/>
     <mergeCell ref="A6:G6"/>
@@ -2055,12 +2061,6 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2091,112 +2091,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2421,22 +2421,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2454,11 +2454,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2470,76 +2470,71 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27"/>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A27:C33"/>
-    <mergeCell ref="E27:G33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B1:G1"/>
@@ -2553,6 +2548,11 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A27:C33"/>
+    <mergeCell ref="E27:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2567,8 +2567,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -2584,15 +2584,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="2" spans="1:7" ht="28.2" customHeight="1">
       <c r="A2" s="48" t="s">
@@ -2600,10 +2600,10 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
     </row>
     <row r="3" spans="1:7" ht="22.8" customHeight="1">
       <c r="A3" s="48" t="s">
@@ -2611,10 +2611,10 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1">
       <c r="A4" s="48" t="s">
@@ -2622,10 +2622,10 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
     </row>
     <row r="5" spans="1:7" ht="26.4" customHeight="1">
       <c r="A5" s="49" t="s">
@@ -2633,65 +2633,65 @@
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="112"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
     </row>
     <row r="8" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
     </row>
     <row r="9" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
     </row>
     <row r="10" spans="1:7" s="40" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
     </row>
     <row r="11" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="43" t="s">
@@ -2907,43 +2907,43 @@
       <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="102">
-        <f>SUM(F27:F27)</f>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="96">
+        <f>SUM(F12:F27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="103"/>
+      <c r="G28" s="97"/>
     </row>
     <row r="29" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="101"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
     </row>
     <row r="30" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="102">
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="96">
         <f>SUM(F28:G29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="103"/>
+      <c r="G30" s="97"/>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1">
       <c r="A31" s="56" t="s">
@@ -2957,10 +2957,10 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="92"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="60"/>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
@@ -2968,10 +2968,10 @@
       <c r="G32" s="61"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="92"/>
+      <c r="B33" s="110"/>
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
       <c r="E33" s="62"/>
@@ -2979,10 +2979,10 @@
       <c r="G33" s="63"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="94"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
       <c r="E34" s="64"/>
@@ -2999,62 +2999,62 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="21" customHeight="1">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="95"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="46"/>
-      <c r="D36" s="96" t="s">
+      <c r="D36" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="95"/>
-      <c r="B37" s="95"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="46"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1">
-      <c r="A38" s="95"/>
-      <c r="B38" s="95"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="46"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
     </row>
     <row r="39" spans="1:7" ht="21" customHeight="1">
-      <c r="A39" s="95"/>
-      <c r="B39" s="95"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
     </row>
     <row r="40" spans="1:7" ht="21" customHeight="1">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
     </row>
     <row r="41" spans="1:7" ht="21" customHeight="1">
-      <c r="A41" s="95"/>
-      <c r="B41" s="95"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="113"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
     </row>
     <row r="42" spans="1:7" ht="21" customHeight="1">
       <c r="A42" s="46"/>
@@ -3066,6 +3066,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B41"/>
+    <mergeCell ref="D36:G41"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G5"/>
     <mergeCell ref="F29:G29"/>
@@ -3080,11 +3085,6 @@
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B41"/>
-    <mergeCell ref="D36:G41"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCA1487-FAD6-47CA-A202-BDF32C30B8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF22F2C7-80CA-46F2-A7CF-BBB4CD554EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t>Người bán hàng</t>
   </si>
@@ -265,7 +265,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;₫&quot;"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +458,12 @@
       <b/>
       <sz val="22"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -683,7 +689,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -828,200 +834,203 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1162,7 +1171,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1679908</xdr:colOff>
+      <xdr:colOff>1679909</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>268062</xdr:rowOff>
     </xdr:to>
@@ -1568,112 +1577,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1718,7 +1727,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="79" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1742,7 +1751,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="80"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1764,7 +1773,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="72"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1786,7 +1795,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1808,7 +1817,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="72"/>
+      <c r="G16" s="80"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1830,7 +1839,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="73"/>
+      <c r="G17" s="81"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1881,18 +1890,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="78"/>
+      <c r="G20" s="86"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1928,22 +1937,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1961,11 +1970,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -1977,77 +1986,71 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
       <c r="D28"/>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A28:C34"/>
     <mergeCell ref="E28:G34"/>
     <mergeCell ref="A6:G6"/>
@@ -2061,6 +2064,12 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2091,112 +2100,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2377,18 +2386,18 @@
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90" t="e">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89" t="e">
         <f>SUM('CH2'!A19:E19F12:F17)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G19" s="90"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="13"/>
@@ -2421,22 +2430,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2454,11 +2463,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2470,71 +2479,76 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
       <c r="D27"/>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A27:C33"/>
+    <mergeCell ref="E27:G33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B1:G1"/>
@@ -2548,11 +2562,6 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A27:C33"/>
-    <mergeCell ref="E27:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2567,14 +2576,14 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="77.33203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="98.77734375" style="39" customWidth="1"/>
     <col min="3" max="3" width="21" style="39" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="41" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" style="42" customWidth="1"/>
@@ -2584,15 +2593,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:7" ht="28.2" customHeight="1">
       <c r="A2" s="48" t="s">
@@ -2600,10 +2609,10 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:7" ht="22.8" customHeight="1">
       <c r="A3" s="48" t="s">
@@ -2611,10 +2620,10 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1">
       <c r="A4" s="48" t="s">
@@ -2622,10 +2631,10 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
     </row>
     <row r="5" spans="1:7" ht="26.4" customHeight="1">
       <c r="A5" s="49" t="s">
@@ -2633,71 +2642,73 @@
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
     </row>
     <row r="6" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
     </row>
     <row r="7" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="110"/>
     </row>
     <row r="8" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110"/>
     </row>
     <row r="9" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
     </row>
     <row r="10" spans="1:7" s="40" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
     </row>
     <row r="11" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="43" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
@@ -2715,279 +2726,279 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="51">
+      <c r="A12" s="51"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="50">
         <f t="shared" ref="F12:F26" si="0">E12*D12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="55"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="51">
+      <c r="A13" s="51"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="55"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="51">
+      <c r="A14" s="51"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="55"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="51">
+      <c r="A15" s="51"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="55"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="51">
+      <c r="A16" s="51"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="55"/>
+      <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="51">
+      <c r="A17" s="51"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="55"/>
+      <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="51">
+      <c r="A18" s="51"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="55"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="51">
+      <c r="A19" s="51"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="51">
+      <c r="A20" s="51"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="55"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="51">
+      <c r="A21" s="51"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="51">
+      <c r="A22" s="51"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="55"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="51">
+      <c r="A23" s="51"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="55"/>
+      <c r="G23" s="54"/>
     </row>
     <row r="24" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="51">
+      <c r="A24" s="51"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="55"/>
+      <c r="G24" s="54"/>
     </row>
     <row r="25" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="51">
+      <c r="A25" s="51"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="55"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="51">
+      <c r="A26" s="51"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="55"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:7" s="38" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="51">
+      <c r="A27" s="51"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="50">
         <f>E27*D27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="55"/>
+      <c r="G27" s="54"/>
     </row>
     <row r="28" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="96">
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="101">
         <f>SUM(F12:F27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="97"/>
+      <c r="G28" s="102"/>
     </row>
     <row r="29" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="95"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="100"/>
     </row>
     <row r="30" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="98" t="s">
+      <c r="A30" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="96">
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="101">
         <f>SUM(F28:G29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="97"/>
+      <c r="G30" s="102"/>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="110"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="65"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="64"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="38"/>
@@ -2999,62 +3010,62 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="21" customHeight="1">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="113"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="46"/>
-      <c r="D36" s="114" t="s">
+      <c r="D36" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="113"/>
-      <c r="B37" s="113"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="46"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1">
-      <c r="A38" s="113"/>
-      <c r="B38" s="113"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="46"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
     </row>
     <row r="39" spans="1:7" ht="21" customHeight="1">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
     </row>
     <row r="40" spans="1:7" ht="21" customHeight="1">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
     </row>
     <row r="41" spans="1:7" ht="21" customHeight="1">
-      <c r="A41" s="113"/>
-      <c r="B41" s="113"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="94"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
     </row>
     <row r="42" spans="1:7" ht="21" customHeight="1">
       <c r="A42" s="46"/>
@@ -3065,12 +3076,11 @@
       <c r="G42" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B41"/>
-    <mergeCell ref="D36:G41"/>
+  <mergeCells count="22">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G5"/>
     <mergeCell ref="F29:G29"/>
@@ -3081,10 +3091,14 @@
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
     <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B41"/>
+    <mergeCell ref="D36:G41"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF22F2C7-80CA-46F2-A7CF-BBB4CD554EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF80C82D-7B95-49C4-AC0A-FBA6A74A45DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -879,6 +879,48 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -906,54 +948,69 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -972,65 +1029,8 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1171,7 +1171,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1679909</xdr:colOff>
+      <xdr:colOff>1527508</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>268062</xdr:rowOff>
     </xdr:to>
@@ -1577,112 +1577,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1727,7 +1727,7 @@
         <f>E12*D12</f>
         <v>800000</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="70" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
         <f t="shared" ref="F13:F19" si="0">E13*D13</f>
         <v>750000</v>
       </c>
-      <c r="G13" s="80"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="15">
@@ -1773,7 +1773,7 @@
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="G14" s="80"/>
+      <c r="G14" s="71"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="15">
@@ -1795,7 +1795,7 @@
         <f t="shared" si="0"/>
         <v>550000</v>
       </c>
-      <c r="G15" s="80"/>
+      <c r="G15" s="71"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="15">
@@ -1817,7 +1817,7 @@
         <f t="shared" si="0"/>
         <v>380000</v>
       </c>
-      <c r="G16" s="80"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="15">
@@ -1839,7 +1839,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="G17" s="81"/>
+      <c r="G17" s="72"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="15">
@@ -1890,18 +1890,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76">
         <f>SUM(F12:F19)</f>
         <v>5670000</v>
       </c>
-      <c r="G20" s="86"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="13"/>
@@ -1937,22 +1937,22 @@
         <v>4</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="8" t="s">
@@ -1970,11 +1970,11 @@
         <v>2</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="7"/>
@@ -1986,71 +1986,77 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
       <c r="D28"/>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
     </row>
     <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="A28:C34"/>
     <mergeCell ref="E28:G34"/>
     <mergeCell ref="A6:G6"/>
@@ -2064,12 +2070,6 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2100,112 +2100,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="11" spans="1:10" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2430,22 +2430,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -2463,11 +2463,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="7"/>
@@ -2479,76 +2479,71 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
       <c r="D27"/>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A27:C33"/>
-    <mergeCell ref="E27:G33"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B1:G1"/>
@@ -2562,6 +2557,11 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A27:C33"/>
+    <mergeCell ref="E27:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2577,31 +2577,31 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="39" customWidth="1"/>
     <col min="2" max="2" width="98.77734375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="21" style="39" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="39" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="41" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="21" style="42" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" style="42" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" style="39" customWidth="1"/>
     <col min="8" max="10" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
     </row>
     <row r="2" spans="1:7" ht="28.2" customHeight="1">
       <c r="A2" s="48" t="s">
@@ -2609,10 +2609,10 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
     </row>
     <row r="3" spans="1:7" ht="22.8" customHeight="1">
       <c r="A3" s="48" t="s">
@@ -2620,10 +2620,10 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1">
       <c r="A4" s="48" t="s">
@@ -2631,10 +2631,10 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
     </row>
     <row r="5" spans="1:7" ht="26.4" customHeight="1">
       <c r="A5" s="49" t="s">
@@ -2642,65 +2642,65 @@
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
     </row>
     <row r="6" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
     </row>
     <row r="7" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="110"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
     </row>
     <row r="8" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
     </row>
     <row r="9" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
     </row>
     <row r="10" spans="1:7" s="40" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
     </row>
     <row r="11" spans="1:7" s="35" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="43" t="s">
@@ -2918,43 +2918,43 @@
       <c r="G27" s="54"/>
     </row>
     <row r="28" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="101">
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="99">
         <f>SUM(F12:F27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="102"/>
+      <c r="G28" s="100"/>
     </row>
     <row r="29" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="100"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
     </row>
     <row r="30" spans="1:7" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="101">
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="99">
         <f>SUM(F28:G29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="102"/>
+      <c r="G30" s="100"/>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1">
       <c r="A31" s="55" t="s">
@@ -2968,10 +2968,10 @@
       <c r="G31" s="58"/>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="91"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
@@ -2979,10 +2979,10 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="91"/>
+      <c r="B33" s="110"/>
       <c r="C33" s="61"/>
       <c r="D33" s="61"/>
       <c r="E33" s="61"/>
@@ -2990,10 +2990,10 @@
       <c r="G33" s="62"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="93"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="63"/>
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
@@ -3010,62 +3010,62 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="21" customHeight="1">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="94"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="46"/>
-      <c r="D36" s="95" t="s">
+      <c r="D36" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="46"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1">
-      <c r="A38" s="94"/>
-      <c r="B38" s="94"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="46"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
     </row>
     <row r="39" spans="1:7" ht="21" customHeight="1">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
     </row>
     <row r="40" spans="1:7" ht="21" customHeight="1">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
     </row>
     <row r="41" spans="1:7" ht="21" customHeight="1">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="113"/>
       <c r="C41" s="46"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
     </row>
     <row r="42" spans="1:7" ht="21" customHeight="1">
       <c r="A42" s="46"/>
@@ -3077,28 +3077,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B41"/>
+    <mergeCell ref="D36:G41"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G5"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B41"/>
-    <mergeCell ref="D36:G41"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C988C0B-5132-49A9-AD7D-07062CC3C52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257361C6-5FE2-4895-BC87-F03A842465AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -604,6 +604,57 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -622,61 +673,10 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -1127,15 +1127,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="28.2" customHeight="1">
       <c r="A2" s="14" t="s">
@@ -1143,10 +1143,10 @@
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="22.8" customHeight="1">
       <c r="A3" s="14" t="s">
@@ -1154,10 +1154,10 @@
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1">
       <c r="A4" s="14" t="s">
@@ -1165,10 +1165,10 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="26.4" customHeight="1">
       <c r="A5" s="15" t="s">
@@ -1176,65 +1176,68 @@
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56" t="str">
+        <f ca="1">CHOOSE(WEEKDAY(TODAY()),"Chủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")&amp; " / " &amp; TEXT(TODAY(),"dd/mm/yyyy")</f>
+        <v>Thứ 3 / 02/09/2025</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="9" t="s">
@@ -1452,43 +1455,43 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="47">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="37">
         <f>SUM(F12:F27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="47">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="37">
         <f>SUM(F28:G29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="48"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7" ht="21" customHeight="1">
       <c r="A31" s="21" t="s">
@@ -1502,10 +1505,10 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="21" customHeight="1">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -1513,10 +1516,10 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -1524,10 +1527,10 @@
       <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
@@ -1544,62 +1547,62 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="21" customHeight="1">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="D36" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
     </row>
     <row r="38" spans="1:7" ht="21" customHeight="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
     </row>
     <row r="39" spans="1:7" ht="21" customHeight="1">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
     </row>
     <row r="40" spans="1:7" ht="21" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
     </row>
     <row r="41" spans="1:7" ht="21" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
     </row>
     <row r="42" spans="1:7" ht="21" customHeight="1">
       <c r="A42" s="12"/>
@@ -1610,7 +1613,15 @@
       <c r="G42" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="19">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B41"/>
+    <mergeCell ref="D36:G41"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G5"/>
     <mergeCell ref="F29:G29"/>
@@ -1622,17 +1633,6 @@
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B41"/>
-    <mergeCell ref="D36:G41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257361C6-5FE2-4895-BC87-F03A842465AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96FE74E-CE51-49AA-BA93-25B0DA065EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
   <sheets>
     <sheet name="CH1" sheetId="5" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>3. Giao hàng sau ngày kể từ ngày ký hợp đồng</t>
   </si>
   <si>
-    <t>2. Báo giá có hiệu lực trong vòng 05 ngày kể từ ngày phát hành</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lưu ý:      </t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>SL</t>
   </si>
   <si>
-    <t>HÃNG</t>
-  </si>
-  <si>
     <t>THÀNH TIỀN:</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
   </si>
   <si>
     <t>THUẾ GTGT (8%):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BÁO GIÁ CẤU HÌNH MÁY TÍNH </t>
   </si>
   <si>
     <r>
@@ -157,6 +148,15 @@
       <t>Sintechvietnam@gmail.com</t>
     </r>
   </si>
+  <si>
+    <t>2. Báo giá có hiệu lực trong vòng 03 ngày kể từ ngày phát hành</t>
+  </si>
+  <si>
+    <t>GIẢM GIÁ:</t>
+  </si>
+  <si>
+    <t>BÁO GIÁ CẤU HÌNH MÁY TÍNH</t>
+  </si>
 </sst>
 </file>
 
@@ -208,13 +208,6 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -283,6 +276,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -303,12 +303,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,8 +313,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -445,19 +445,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,9 +496,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -526,7 +513,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -535,148 +522,166 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -693,9 +698,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFD70018"/>
       <color rgb="FFB31D0D"/>
       <color rgb="FFD60000"/>
+      <color rgb="FFD70018"/>
     </mruColors>
   </colors>
   <extLst>
@@ -714,13 +719,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>125226</xdr:colOff>
+      <xdr:colOff>152442</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>179319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1527508</xdr:colOff>
+      <xdr:colOff>683866</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>268062</xdr:rowOff>
     </xdr:to>
@@ -751,8 +756,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9296935" y="179319"/>
-          <a:ext cx="3674428" cy="1460343"/>
+          <a:off x="8180656" y="179319"/>
+          <a:ext cx="3620246" cy="1435850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,14 +768,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>224795</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1068439</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1376337</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2219981</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
@@ -795,8 +800,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13146138" y="87086"/>
-          <a:ext cx="1151542" cy="1469571"/>
+          <a:off x="12185475" y="87086"/>
+          <a:ext cx="1151542" cy="1445078"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,531 +1113,334 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="98.77734375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="5" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="9.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="5" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.4" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" ht="29.45" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="28.15" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.9" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6" ht="27" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.45" customHeight="1">
+      <c r="A5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A6" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.2" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.8" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="54" t="str">
+        <f ca="1">CHOOSE(WEEKDAY(TODAY()),"Chủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")&amp; " / " &amp; TEXT(TODAY(),"dd/mm/yyyy")</f>
+        <v>Chủ nhật / 07/09/2025</v>
+      </c>
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A11" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="12">
+        <f t="shared" ref="E12" si="0">D12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="41">
+        <f>SUM(E12:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="41">
+        <f>SUM(E13:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1">
+      <c r="A18" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" ht="21" customHeight="1">
+      <c r="A19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" ht="27" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.4" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56" t="str">
-        <f ca="1">CHOOSE(WEEKDAY(TODAY()),"Chủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")&amp; " / " &amp; TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>Thứ 3 / 02/09/2025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="16">
-        <f t="shared" ref="F12:F26" si="0">E12*D12</f>
+      <c r="B19" s="32"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" ht="21" customHeight="1">
+      <c r="A20" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="21" customHeight="1">
+      <c r="A22" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="16">
-        <f>E27*D27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="37">
-        <f>SUM(F12:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="37">
-        <f>SUM(F28:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:7" ht="21" customHeight="1">
-      <c r="A31" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="1:7" ht="21" customHeight="1">
-      <c r="A32" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-    </row>
-    <row r="34" spans="1:7" ht="21" customHeight="1">
-      <c r="A34" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-    </row>
-    <row r="35" spans="1:7" ht="21" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" ht="21" customHeight="1">
-      <c r="A36" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-    </row>
-    <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-    </row>
-    <row r="38" spans="1:7" ht="21" customHeight="1">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-    </row>
-    <row r="39" spans="1:7" ht="21" customHeight="1">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-    </row>
-    <row r="40" spans="1:7" ht="21" customHeight="1">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-    </row>
-    <row r="41" spans="1:7" ht="21" customHeight="1">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-    </row>
-    <row r="42" spans="1:7" ht="21" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6" ht="21" customHeight="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="1:6" ht="21" customHeight="1">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:6" ht="21" customHeight="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:6" ht="21" customHeight="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:6" ht="21" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
+  <mergeCells count="21">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B27"/>
+    <mergeCell ref="C22:F27"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F5"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B41"/>
-    <mergeCell ref="D36:G41"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:G5"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96FE74E-CE51-49AA-BA93-25B0DA065EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C336A6C3-CAAE-4F6C-A83F-6D1E7E7AD3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -496,7 +496,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,6 +579,93 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -587,102 +674,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1116,7 +1107,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -1131,125 +1122,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.45" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="28.15" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="22.9" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" ht="26.45" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="54" t="str">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="50" t="str">
         <f ca="1">CHOOSE(WEEKDAY(TODAY()),"Chủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")&amp; " / " &amp; TEXT(TODAY(),"dd/mm/yyyy")</f>
         <v>Chủ nhật / 07/09/2025</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1258,57 +1249,54 @@
       <c r="B12" s="27"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="12">
-        <f t="shared" ref="E12" si="0">D12*C12</f>
-        <v>0</v>
-      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="41">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="42">
         <f>SUM(E12:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="41">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="42">
         <f>SUM(E13:F14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
       <c r="A17" s="17" t="s">
@@ -1321,30 +1309,30 @@
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -1359,56 +1347,56 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1">
       <c r="A28" s="9"/>
@@ -1420,6 +1408,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:B27"/>
     <mergeCell ref="C22:F27"/>
@@ -1436,11 +1429,6 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C336A6C3-CAAE-4F6C-A83F-6D1E7E7AD3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA9D82A-4E43-491C-B8C9-1F7AAB079685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -597,6 +597,30 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -650,30 +674,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1106,14 +1106,14 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="98.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="21" style="8" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" style="8" customWidth="1"/>
@@ -1122,107 +1122,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.45" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="28.15" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="22.9" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="26.45" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="50" t="str">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="58" t="str">
         <f ca="1">CHOOSE(WEEKDAY(TODAY()),"Chủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")&amp; " / " &amp; TEXT(TODAY(),"dd/mm/yyyy")</f>
         <v>Chủ nhật / 07/09/2025</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="28" t="s">
@@ -1253,27 +1253,27 @@
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="42">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="50">
         <f>SUM(E12:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="51"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="31"/>
@@ -1282,21 +1282,21 @@
       <c r="D15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="42">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="50">
         <f>SUM(E13:F14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
       <c r="A17" s="17" t="s">
@@ -1309,30 +1309,30 @@
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="56"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="56"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -1347,56 +1347,56 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1">
       <c r="A28" s="9"/>
@@ -1408,11 +1408,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:B27"/>
     <mergeCell ref="C22:F27"/>
@@ -1429,6 +1424,11 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA9D82A-4E43-491C-B8C9-1F7AAB079685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E67E156-09AF-4237-B6CD-9FF6FA8AC291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -69,16 +69,10 @@
     <t>Lời đầu tiên, xin trân trọng cảm ơn quý khách hàng đã quan tâm đến sản phẩm máy tính của công ty chúng tôi. Chúng tôi xin gửi đến quý khách hàng bảng báo giá như sau:</t>
   </si>
   <si>
-    <t>ĐỊA CHỈ:</t>
-  </si>
-  <si>
     <t>SĐT:</t>
   </si>
   <si>
     <t>CÔNG TY TNHH CÔNG NGHỆ MÁY TÍNH SINTECH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KHÁCH HÀNG: </t>
   </si>
   <si>
     <t>SL</t>
@@ -156,6 +150,12 @@
   </si>
   <si>
     <t>BÁO GIÁ CẤU HÌNH MÁY TÍNH</t>
+  </si>
+  <si>
+    <t>TÊN KH:</t>
+  </si>
+  <si>
+    <t>Đ/C:</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,14 +597,59 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -612,68 +657,14 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -716,7 +707,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>683866</xdr:colOff>
+      <xdr:colOff>683867</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>268062</xdr:rowOff>
     </xdr:to>
@@ -1107,12 +1098,12 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="108.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="21" style="8" customWidth="1"/>
@@ -1122,107 +1113,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.45" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="A1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="28.15" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="22.9" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" ht="26.45" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="A6" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
+      <c r="A7" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="58" t="str">
+      <c r="A8" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="50" t="str">
         <f ca="1">CHOOSE(WEEKDAY(TODAY()),"Chủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")&amp; " / " &amp; TEXT(TODAY(),"dd/mm/yyyy")</f>
         <v>Chủ nhật / 07/09/2025</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="A9" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="28" t="s">
@@ -1232,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>7</v>
@@ -1253,50 +1244,50 @@
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="50">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="42">
         <f>SUM(E12:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="51"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
+      <c r="A14" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+        <v>22</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="50">
+      <c r="A16" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="42">
         <f>SUM(E13:F14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="51"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
       <c r="A17" s="17" t="s">
@@ -1309,30 +1300,30 @@
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="38"/>
+      <c r="A18" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="53"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="38"/>
+      <c r="A19" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="53"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -1347,56 +1338,56 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1">
       <c r="A28" s="9"/>
@@ -1408,6 +1399,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:B27"/>
     <mergeCell ref="C22:F27"/>
@@ -1424,11 +1420,6 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E67E156-09AF-4237-B6CD-9FF6FA8AC291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CF9708-EBF7-4E50-BA55-69430F658AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -320,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -430,19 +430,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -490,13 +477,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="5" fontId="3" fillId="0" borderId="11">
+    <xf numFmtId="5" fontId="3" fillId="0" borderId="10">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,9 +530,6 @@
     <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -588,54 +572,57 @@
     <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -645,26 +632,20 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1098,7 +1079,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -1113,14 +1094,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.45" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="28.15" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -1128,9 +1109,9 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6" ht="22.9" customHeight="1">
       <c r="A3" s="11" t="s">
@@ -1138,9 +1119,9 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="49"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -1148,9 +1129,9 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="49"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6" ht="26.45" customHeight="1">
       <c r="A5" s="11" t="s">
@@ -1158,9 +1139,9 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="49"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6" ht="39.75" customHeight="1">
       <c r="A6" s="48" t="s">
@@ -1173,22 +1154,22 @@
       <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="50" t="str">
         <f ca="1">CHOOSE(WEEKDAY(TODAY()),"Chủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")&amp; " / " &amp; TEXT(TODAY(),"dd/mm/yyyy")</f>
         <v>Chủ nhật / 07/09/2025</v>
@@ -1196,7 +1177,7 @@
       <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="54"/>
@@ -1216,32 +1197,32 @@
       <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A12" s="13"/>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="44" t="s">
@@ -1250,11 +1231,11 @@
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
       <c r="D13" s="46"/>
-      <c r="E13" s="42">
+      <c r="E13" s="52">
         <f>SUM(E12:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="44" t="s">
@@ -1263,18 +1244,18 @@
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
       <c r="D14" s="46"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="44" t="s">
@@ -1283,51 +1264,51 @@
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="42">
+      <c r="E16" s="52">
         <f>SUM(E13:F14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1">
       <c r="A21" s="4"/>
@@ -1338,56 +1319,56 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1">
       <c r="A28" s="9"/>
@@ -1399,11 +1380,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:F9"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:B27"/>
     <mergeCell ref="C22:F27"/>
@@ -1420,6 +1396,11 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CF9708-EBF7-4E50-BA55-69430F658AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8C4FE9-E439-4898-ADF4-BF68C183B6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -152,10 +152,10 @@
     <t>BÁO GIÁ CẤU HÌNH MÁY TÍNH</t>
   </si>
   <si>
-    <t>TÊN KH:</t>
-  </si>
-  <si>
     <t>Đ/C:</t>
+  </si>
+  <si>
+    <t>KH:</t>
   </si>
 </sst>
 </file>
@@ -584,6 +584,54 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -594,54 +642,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -1094,91 +1094,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.45" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="28.15" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="22.9" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" ht="26.45" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="50" t="str">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="48" t="str">
         <f ca="1">CHOOSE(WEEKDAY(TODAY()),"Chủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")&amp; " / " &amp; TEXT(TODAY(),"dd/mm/yyyy")</f>
         <v>Chủ nhật / 07/09/2025</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
@@ -1187,14 +1187,14 @@
       <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="27" t="s">
@@ -1225,27 +1225,27 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="52">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="41">
         <f>SUM(E12:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="30"/>
@@ -1254,21 +1254,21 @@
       <c r="D15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="52">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="41">
         <f>SUM(E13:F14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
       <c r="A17" s="16" t="s">
@@ -1281,30 +1281,30 @@
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -1319,56 +1319,56 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1">
       <c r="A28" s="9"/>
@@ -1380,6 +1380,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:B27"/>
     <mergeCell ref="C22:F27"/>
@@ -1396,11 +1401,6 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8C4FE9-E439-4898-ADF4-BF68C183B6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285C7D0F-9660-443B-BBFD-9378BF7AC3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -584,6 +584,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -630,21 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -1094,107 +1094,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.45" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="28.15" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" ht="22.9" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" ht="26.45" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="48" t="str">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="53" t="str">
         <f ca="1">CHOOSE(WEEKDAY(TODAY()),"Chủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")&amp; " / " &amp; TEXT(TODAY(),"dd/mm/yyyy")</f>
         <v>Chủ nhật / 07/09/2025</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="27" t="s">
@@ -1225,27 +1225,24 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="41">
-        <f>SUM(E12:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="41"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="30"/>
@@ -1254,21 +1251,18 @@
       <c r="D15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="41">
-        <f>SUM(E13:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="41"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
       <c r="A17" s="16" t="s">
@@ -1281,30 +1275,30 @@
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -1319,56 +1313,56 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1">
       <c r="A28" s="9"/>
@@ -1380,11 +1374,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:F9"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:B27"/>
     <mergeCell ref="C22:F27"/>
@@ -1401,6 +1390,11 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285C7D0F-9660-443B-BBFD-9378BF7AC3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0261E77A-292E-419F-A269-1C737293B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -582,7 +582,55 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -597,54 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -1094,107 +1094,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.45" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="28.15" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="22.9" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" ht="26.45" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="53" t="str">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="48" t="str">
         <f ca="1">CHOOSE(WEEKDAY(TODAY()),"Chủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")&amp; " / " &amp; TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>Chủ nhật / 07/09/2025</v>
-      </c>
-      <c r="F8" s="54"/>
+        <v>Thứ 2 / 08/09/2025</v>
+      </c>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="27" t="s">
@@ -1225,24 +1225,24 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="30"/>
@@ -1251,18 +1251,18 @@
       <c r="D15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
       <c r="A17" s="16" t="s">
@@ -1275,30 +1275,30 @@
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -1313,56 +1313,56 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1">
       <c r="A28" s="9"/>
@@ -1374,6 +1374,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:B27"/>
     <mergeCell ref="C22:F27"/>
@@ -1390,11 +1395,6 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/form_bao_gia_cau_hinh_sintech.xlsx
+++ b/form_bao_gia_cau_hinh_sintech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong\Downloads\bao_gia_sintech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0261E77A-292E-419F-A269-1C737293B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6AD59B-54C0-4943-8B81-FB014B2A2FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53E664AF-38A3-414D-AF72-5AA58059617D}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     </r>
   </si>
   <si>
-    <t>2. Báo giá có hiệu lực trong vòng 03 ngày kể từ ngày phát hành</t>
-  </si>
-  <si>
     <t>GIẢM GIÁ:</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>KH:</t>
+  </si>
+  <si>
+    <t>2. Báo giá có hiệu lực trong ngày kể từ ngày phát hành</t>
   </si>
 </sst>
 </file>
@@ -584,6 +584,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -630,21 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
@@ -1094,107 +1094,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.45" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="28.15" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" ht="22.9" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" ht="26.45" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A6" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+        <v>24</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="48" t="str">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="53" t="str">
         <f ca="1">CHOOSE(WEEKDAY(TODAY()),"Chủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")&amp; " / " &amp; TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>Thứ 2 / 08/09/2025</v>
-      </c>
-      <c r="F8" s="49"/>
+        <v>Thứ 2 / 26/01/2026</v>
+      </c>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+        <v>23</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A11" s="27" t="s">
@@ -1225,44 +1225,44 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1">
       <c r="A17" s="16" t="s">
@@ -1275,30 +1275,30 @@
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="51"/>
+      <c r="A19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="35"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -1313,56 +1313,56 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1">
       <c r="A28" s="9"/>
@@ -1374,11 +1374,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:F9"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:B27"/>
     <mergeCell ref="C22:F27"/>
@@ -1395,6 +1390,11 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
